--- a/xlsx/職業摔角_intext.xlsx
+++ b/xlsx/職業摔角_intext.xlsx
@@ -29,7 +29,7 @@
     <t>世界摔角娛樂</t>
   </si>
   <si>
-    <t>政策_政策_美國_職業摔角</t>
+    <t>体育运动_体育运动_体育运动列表_職業摔角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%89%E6%89%8B</t>
